--- a/manage_platform/src/main/webapp/file/导入测试用例模板.xlsx
+++ b/manage_platform/src/main/webapp/file/导入测试用例模板.xlsx
@@ -29,22 +29,7 @@
     <author>高珊</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>以json格式写出断言内容，如｛returnCode:0,dataCount:2｝</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,23 +63,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>自定义参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义参数类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入用例demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了测试用例导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>参数断言</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自定义参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义参数类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义参数类型</t>
+    <t>{"returnCode":0,"data":"money"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userName":"test","password":"123456"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -102,39 +107,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入用例demo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为了测试用例导入</t>
+    <t>自定义参数类型值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&amp;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"userName":"test","password":"123456"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"returnCode":0,"data":"money"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>search</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -142,7 +119,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,14 +151,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -197,7 +166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -220,6 +189,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -233,8 +211,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,106 +494,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.109375" customWidth="1"/>
     <col min="3" max="4" width="19.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" customWidth="1"/>
-    <col min="6" max="6" width="28.77734375" customWidth="1"/>
-    <col min="7" max="7" width="42.5546875" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="K1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1002</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" t="s">
+    <row r="3" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10022</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
       </c>
       <c r="D3">
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K4" t="s">
-        <v>12</v>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/manage_platform/src/main/webapp/file/导入测试用例模板.xlsx
+++ b/manage_platform/src/main/webapp/file/导入测试用例模板.xlsx
@@ -44,12 +44,68 @@
         </r>
       </text>
     </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>json或者xml或者&amp;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>多个数据操作以分号隔开，格式为，数据库配置名1：sql语句1；数据库配置名2：sql语句2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>多个数据操作以分号隔开，格式为，数据库配置名1：sql语句1；数据库配置名2：sql语句2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>SINGLE或者MUTIPLE</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,10 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>导入用例demo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,11 +159,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自定义参数类型值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;</t>
+    <t>数据准备-数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据清除-数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车行易数据库配置:select * from test_case;</t>
+  </si>
+  <si>
+    <t>车行易数据库配置:select * from test_case;
+车行易数据库配置:select * from test_case;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SINGLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了测试用例导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入用例demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10dw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -119,7 +203,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +235,21 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -166,7 +265,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -189,30 +288,24 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,23 +587,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
     <col min="2" max="2" width="13.109375" customWidth="1"/>
     <col min="3" max="4" width="19.21875" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="38.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
+    <col min="8" max="8" width="48" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,7 +616,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -529,68 +624,75 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1002</v>
+    <row r="2" spans="1:10" ht="100.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>67</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>10022</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
       <c r="D3">
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I4" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
